--- a/01_alluminio_frattale/raw data/01_alluminio_frattale_raw.xlsx
+++ b/01_alluminio_frattale/raw data/01_alluminio_frattale_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aa7d395ec58982d/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\Documents\[Università]\[Laurea Magistrale]\[Primo Anno]\Scientific data acquisition and processing\Data Analysis\Lab_Sc_data_acquisition\01_alluminio_frattale\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{B3AB544F-F4F5-47EB-BED9-28A805E33710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7F4393-2A49-4E14-85AF-32E2B6134979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E4CDC7-80F9-46C1-B0E3-4C5E93104023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F23CBE7-2062-4926-9ABF-02CDC9F0CDBD}"/>
   </bookViews>
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,10 +300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,10 +321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +643,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +657,7 @@
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="12" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="22" max="22" width="15.28515625" customWidth="1"/>
@@ -715,16 +707,16 @@
       <c r="N1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -755,7 +747,7 @@
         <v>29.016666666666666</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I11" si="0">STDEV(B2:G2)</f>
+        <f t="shared" ref="I2:I9" si="0">STDEV(B2:G2)</f>
         <v>4.0824829046386887E-2</v>
       </c>
       <c r="J2" s="6">
@@ -898,11 +890,11 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N3:N10" si="4">_xlfn.STDEV.S(J4:L4)</f>
+        <f>_xlfn.STDEV.S(J4:L4)</f>
         <v>2.7194799110210365E-16</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O11" si="5">LN(H4)</f>
+        <f t="shared" ref="O4:O11" si="4">LN(H4)</f>
         <v>3.1354942159291497</v>
       </c>
       <c r="Q4" s="1">
@@ -961,7 +953,7 @@
         <v>0.01</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.9965652598578827</v>
       </c>
       <c r="Q5" s="1">
@@ -1025,7 +1017,7 @@
         <v>1.3597399555105182E-16</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8341932559425649</v>
       </c>
       <c r="Q6" s="1">
@@ -1088,16 +1080,13 @@
         <v>0.01</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6390573296152584</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="3"/>
         <v>-0.41551544396166579</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1143,20 +1132,17 @@
         <v>0.40000000000000008</v>
       </c>
       <c r="N8" s="2">
-        <f>_xlfn.STDEV.S(I8:L8)</f>
-        <v>0.19500000000000009</v>
+        <f>_xlfn.STDEV.S(J8:L8)</f>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.3978952727983707</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="3"/>
         <v>-0.91629073187415488</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1206,16 +1192,13 @@
         <v>0.01</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.0773560351888145</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="3"/>
         <v>-1.5606477482646683</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1264,7 +1247,7 @@
         <v>0.01</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="Q10" s="1">
@@ -1319,11 +1302,10 @@
         <v>0.02</v>
       </c>
       <c r="N11" s="9">
-        <f>_xlfn.STDEV.S(J11:L11)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0986122886681098</v>
       </c>
       <c r="Q11" s="1">
@@ -1345,8 +1327,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M4:N4 M8 N11 M10:M11" formulaRange="1"/>
-    <ignoredError sqref="N8" formula="1"/>
+    <ignoredError sqref="M4:N4 M8:N8 M10:M11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
